--- a/Labs/Lab06-ComplexDomain/Lab6Rubric-ComplexDomain.xlsx
+++ b/Labs/Lab06-ComplexDomain/Lab6Rubric-ComplexDomain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\Labs\Lab07-ComplexDomain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\Labs\Lab06-ComplexDomain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E9D851-D0DD-405C-9ACC-E822BC59E60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6C6509-BBB5-4955-B49A-20EE3EE8891C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15336" yWindow="4836" windowWidth="11688" windowHeight="10992" activeTab="1" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
+    <workbookView xWindow="-14868" yWindow="6132" windowWidth="14808" windowHeight="10992" activeTab="1" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Possible</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>Group B: comments on stories</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Root entity and aggregate</t>
+  </si>
+  <si>
+    <t>Here's the grade breakdown:</t>
+  </si>
+  <si>
+    <t>Excellent work!</t>
   </si>
 </sst>
 </file>
@@ -144,11 +156,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,9 +186,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -207,7 +226,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -313,7 +332,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -455,7 +474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,10 +590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B4A847-4F96-D246-88E5-35AE03F623AE}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -583,124 +602,199 @@
     <col min="2" max="2" width="7.09765625" customWidth="1"/>
     <col min="3" max="3" width="7.8984375" customWidth="1"/>
     <col min="4" max="4" width="6.59765625" customWidth="1"/>
-    <col min="5" max="5" width="17.796875" customWidth="1"/>
+    <col min="5" max="5" width="1.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="D11">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C7:C18)</f>
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D7:D18)</f>
+        <v>50</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <f>SUM(C4:C14)</f>
-        <v>50</v>
-      </c>
-      <c r="D16">
-        <f>SUM(D4:D14)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>